--- a/StructureDefinition-profile-Resource.xlsx
+++ b/StructureDefinition-profile-Resource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7846327-06:00</t>
+    <t>2026-02-09T22:05:43.3127937-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-Resource.xlsx
+++ b/StructureDefinition-profile-Resource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3127937-06:00</t>
+    <t>2026-02-17T14:42:26.8941216-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-Resource.xlsx
+++ b/StructureDefinition-profile-Resource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8941216-06:00</t>
+    <t>2026-02-20T11:59:20.9386588-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Resource|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Resource</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-profile-Resource.xlsx
+++ b/StructureDefinition-profile-Resource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9386588-06:00</t>
+    <t>2026-02-21T13:36:54.3438469-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Resource</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Resource|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
